--- a/col_mapping.xlsx
+++ b/col_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\aorsot\Renewvia\survey_impact_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E54F16F-56F6-4A07-9BC3-86C4FFD4D0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB5081A-6CED-4EEE-B985-F6A07C49F069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="492" windowWidth="13176" windowHeight="22656" firstSheet="1" activeTab="4" xr2:uid="{B4FAF429-75B1-4C9D-84CE-1490C6F7F421}"/>
+    <workbookView minimized="1" xWindow="28932" yWindow="4632" windowWidth="17280" windowHeight="8916" firstSheet="1" activeTab="1" xr2:uid="{B4FAF429-75B1-4C9D-84CE-1490C6F7F421}"/>
   </bookViews>
   <sheets>
     <sheet name="hs_pre_com" sheetId="2" r:id="rId1"/>
@@ -1641,7 +1641,7 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2740,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0D2022-D068-48BB-AE85-CEFAA341344B}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3882,7 +3882,7 @@
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5100,8 +5100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389CC3DC-E7A9-4413-91EB-640B4B281CA4}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6319,8 +6319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F05F95D-0574-49A0-8087-4C95CDAF63B0}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
